--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_捷豹组.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_捷豹组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31240" yWindow="4140" windowWidth="25600" windowHeight="13020"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
   <si>
     <t>No</t>
   </si>
@@ -332,6 +332,39 @@
   </si>
   <si>
     <t>是</t>
+  </si>
+  <si>
+    <t>账务日志展示新增</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ri'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhan'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xin'z</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙伟</t>
+    <rPh sb="0" eb="1">
+      <t>sun'wei</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超。陈术</t>
+    <rPh sb="0" eb="1">
+      <t>shi'chao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chen'shu</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -533,7 +566,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -609,6 +642,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -711,7 +750,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
@@ -728,6 +767,7 @@
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
@@ -739,6 +779,7 @@
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1113,7 +1154,7 @@
   <dimension ref="A1:T184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="L2" sqref="L2:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1231,7 +1272,9 @@
       <c r="K2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="15"/>
+      <c r="L2" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="M2" s="24"/>
       <c r="N2" s="16"/>
       <c r="O2" s="24"/>
@@ -1273,7 +1316,9 @@
       <c r="K3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="15"/>
+      <c r="L3" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="M3" s="24"/>
       <c r="N3" s="16"/>
       <c r="O3" s="24"/>
@@ -1315,7 +1360,9 @@
       <c r="K4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="M4" s="24"/>
       <c r="N4" s="16"/>
       <c r="O4" s="24"/>
@@ -1357,7 +1404,9 @@
       <c r="K5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="15"/>
+      <c r="L5" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="M5" s="24"/>
       <c r="N5" s="16"/>
       <c r="O5" s="24"/>
@@ -1399,7 +1448,9 @@
       <c r="K6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="15"/>
+      <c r="L6" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="M6" s="24"/>
       <c r="N6" s="16"/>
       <c r="O6" s="24"/>
@@ -1441,7 +1492,9 @@
       <c r="K7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="15"/>
+      <c r="L7" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="M7" s="24"/>
       <c r="N7" s="16"/>
       <c r="O7" s="24"/>
@@ -1483,7 +1536,9 @@
       <c r="K8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="15"/>
+      <c r="L8" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="M8" s="24"/>
       <c r="N8" s="16"/>
       <c r="O8" s="24"/>
@@ -1525,7 +1580,9 @@
       <c r="K9" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="15"/>
+      <c r="L9" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="M9" s="24"/>
       <c r="N9" s="16"/>
       <c r="O9" s="24"/>
@@ -1536,18 +1593,32 @@
       <c r="T9" s="28"/>
     </row>
     <row r="10" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="30"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="J10" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="M10" s="24"/>
       <c r="N10" s="16"/>
       <c r="O10" s="24"/>

--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_捷豹组.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_捷豹组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
   <si>
     <t>No</t>
   </si>
@@ -363,6 +363,31 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>chen'shu</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI调整</t>
+    <rPh sb="2" eb="3">
+      <t>tiao'zh</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <rPh sb="0" eb="1">
+      <t>fang'd</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
     </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -566,7 +591,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -648,6 +673,36 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -750,7 +805,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="39">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
@@ -768,6 +823,11 @@
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
@@ -780,6 +840,11 @@
     <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1154,7 +1219,7 @@
   <dimension ref="A1:T184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L10"/>
+      <selection activeCell="K11" sqref="K11:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1605,10 +1670,18 @@
       <c r="D10" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="E10" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="16">
+        <v>42633</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="16">
+        <v>42633</v>
+      </c>
       <c r="I10" s="15"/>
       <c r="J10" s="24" t="s">
         <v>48</v>
@@ -1629,18 +1702,40 @@
       <c r="T10" s="28"/>
     </row>
     <row r="11" spans="1:20" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="16">
+        <v>42633</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="16">
+        <v>42633</v>
+      </c>
       <c r="I11" s="15"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="J11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="M11" s="24"/>
       <c r="N11" s="16"/>
       <c r="O11" s="24"/>

--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_捷豹组.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_捷豹组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="55">
   <si>
     <t>No</t>
   </si>
@@ -388,6 +388,13 @@
     <t>是</t>
     <rPh sb="0" eb="1">
       <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <rPh sb="0" eb="1">
+      <t>neng</t>
     </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1218,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:L11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1340,9 +1347,13 @@
       <c r="L2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="24"/>
+      <c r="M2" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="N2" s="16"/>
-      <c r="O2" s="24"/>
+      <c r="O2" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
@@ -1384,9 +1395,13 @@
       <c r="L3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="24"/>
+      <c r="M3" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="N3" s="16"/>
-      <c r="O3" s="24"/>
+      <c r="O3" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
@@ -1428,9 +1443,13 @@
       <c r="L4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="24"/>
+      <c r="M4" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="N4" s="16"/>
-      <c r="O4" s="24"/>
+      <c r="O4" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
@@ -1472,9 +1491,13 @@
       <c r="L5" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="24"/>
+      <c r="M5" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="N5" s="16"/>
-      <c r="O5" s="24"/>
+      <c r="O5" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
@@ -1516,9 +1539,13 @@
       <c r="L6" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="M6" s="24"/>
+      <c r="M6" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="N6" s="16"/>
-      <c r="O6" s="24"/>
+      <c r="O6" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
@@ -1560,9 +1587,13 @@
       <c r="L7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="24"/>
+      <c r="M7" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="N7" s="16"/>
-      <c r="O7" s="24"/>
+      <c r="O7" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
@@ -1604,9 +1635,13 @@
       <c r="L8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="24"/>
+      <c r="M8" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="N8" s="16"/>
-      <c r="O8" s="24"/>
+      <c r="O8" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -1648,9 +1683,13 @@
       <c r="L9" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="24"/>
+      <c r="M9" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="N9" s="16"/>
-      <c r="O9" s="24"/>
+      <c r="O9" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
@@ -1692,9 +1731,13 @@
       <c r="L10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="24"/>
+      <c r="M10" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="N10" s="16"/>
-      <c r="O10" s="24"/>
+      <c r="O10" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1736,9 +1779,13 @@
       <c r="L11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="24"/>
+      <c r="M11" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="N11" s="16"/>
-      <c r="O11" s="24"/>
+      <c r="O11" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
